--- a/xlsx/FR/age_FR_comp.xlsx
+++ b/xlsx/FR/age_FR_comp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -26,16 +26,19 @@
     <t xml:space="preserve">Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">18-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65+</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0562770562770563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0953288654532591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.140692640692641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.167179361867071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.257575757575758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.238043925954211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.268398268398268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.220668529560321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.277056277056277</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.278779317165138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/age_FR_comp.xlsx
+++ b/xlsx/FR/age_FR_comp.xlsx
@@ -389,10 +389,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0562770562770563</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0953288654532591</v>
+        <v>0.115234720800844</v>
       </c>
       <c r="D2" t="n">
         <v>0.12</v>
@@ -403,10 +403,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.140692640692641</v>
+        <v>0.162587412587413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167179361867071</v>
+        <v>0.155942978992724</v>
       </c>
       <c r="D3" t="n">
         <v>0.15</v>
@@ -417,10 +417,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257575757575758</v>
+        <v>0.23951048951049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238043925954211</v>
+        <v>0.220504078485383</v>
       </c>
       <c r="D4" t="n">
         <v>0.24</v>
@@ -431,10 +431,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268398268398268</v>
+        <v>0.234265734265734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220668529560321</v>
+        <v>0.213346947604525</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -445,10 +445,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.277056277056277</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.278779317165138</v>
+        <v>0.294971274116523</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
